--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -527,7 +527,7 @@
   <dimension ref="A1:Z993"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
